--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:20:43+00:00</t>
+    <t>2024-09-19T12:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
